--- a/wwwroot/Reports/software_reportR.xlsx
+++ b/wwwroot/Reports/software_reportR.xlsx
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>15</v>
@@ -829,13 +829,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
@@ -873,13 +873,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>29</v>
@@ -917,13 +917,13 @@
         <v>41</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -961,13 +961,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>41</v>
@@ -1005,13 +1005,13 @@
         <v>43</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>48</v>
@@ -1049,13 +1049,13 @@
         <v>44</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>54</v>
@@ -1093,13 +1093,13 @@
         <v>45</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>60</v>
@@ -1137,13 +1137,13 @@
         <v>46</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>66</v>
@@ -1181,13 +1181,13 @@
         <v>47</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>71</v>
@@ -1225,13 +1225,13 @@
         <v>48</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>75</v>
@@ -1269,13 +1269,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>81</v>
@@ -1313,13 +1313,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>86</v>
@@ -1357,13 +1357,13 @@
         <v>51</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>91</v>
@@ -1401,13 +1401,13 @@
         <v>52</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>96</v>
@@ -1445,13 +1445,13 @@
         <v>53</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>100</v>
@@ -1489,13 +1489,13 @@
         <v>54</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>106</v>
@@ -1533,13 +1533,13 @@
         <v>55</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>111</v>

--- a/wwwroot/Reports/software_reportR.xlsx
+++ b/wwwroot/Reports/software_reportR.xlsx
@@ -785,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>2</v>
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
